--- a/2024/shuffle-architecute/Teste10/content/results/metrics_3_6.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_3_6.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9525254965481816</v>
+        <v>0.9762425767039689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7502499070766158</v>
+        <v>0.7891142562235409</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7742670269271561</v>
+        <v>0.9707274154455533</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9260448315737155</v>
+        <v>0.9958378804746741</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9155650055805523</v>
+        <v>0.9912456450520363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1992403268814087</v>
+        <v>0.09970481693744659</v>
       </c>
       <c r="H2" t="n">
-        <v>1.670080065727234</v>
+        <v>1.410194039344788</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1725700199604034</v>
+        <v>0.08711228519678116</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4713843762874603</v>
+        <v>0.01522686704993248</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3219771683216095</v>
+        <v>0.05116955190896988</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9523595246816624</v>
+        <v>0.9757584231515498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7497193080576197</v>
+        <v>0.7886013261264192</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7790500188491465</v>
+        <v>0.9698336651874907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9267037451027631</v>
+        <v>0.9959857021376918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9165951431827986</v>
+        <v>0.991064380830826</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1999368667602539</v>
+        <v>0.1017367094755173</v>
       </c>
       <c r="H3" t="n">
-        <v>1.673628091812134</v>
+        <v>1.413624048233032</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1689134836196899</v>
+        <v>0.08977199345827103</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4671844840049744</v>
+        <v>0.01468607038259506</v>
       </c>
       <c r="K3" t="n">
-        <v>0.318048894405365</v>
+        <v>0.05222904682159424</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9521826246780416</v>
+        <v>0.975262937014602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7491781119560441</v>
+        <v>0.7880799124604627</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7837831037704051</v>
+        <v>0.9689132048142751</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9273626300664151</v>
+        <v>0.9961328484949757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9176202338634111</v>
+        <v>0.990876127256068</v>
       </c>
       <c r="G4" t="n">
-        <v>0.200679287314415</v>
+        <v>0.1038161441683769</v>
       </c>
       <c r="H4" t="n">
-        <v>1.677247047424316</v>
+        <v>1.417110681533813</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1652950942516327</v>
+        <v>0.09251119941473007</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4629848599433899</v>
+        <v>0.01414774358272552</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3141399025917053</v>
+        <v>0.05332939699292183</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9519944066858789</v>
+        <v>0.9747559676486005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7486259344107746</v>
+        <v>0.787549749723834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.788463295320352</v>
+        <v>0.9679662466853756</v>
       </c>
       <c r="E5" t="n">
-        <v>0.928020945986926</v>
+        <v>0.9962792115459768</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9186395372196823</v>
+        <v>0.9906808621502449</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2014691978693008</v>
+        <v>0.1059438064694405</v>
       </c>
       <c r="H5" t="n">
-        <v>1.680939555168152</v>
+        <v>1.420655727386475</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1617171466350555</v>
+        <v>0.09532924741506577</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4587887525558472</v>
+        <v>0.01361228432506323</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3102529942989349</v>
+        <v>0.0544707290828228</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9517944170029701</v>
+        <v>0.9742373371722892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7480622833368507</v>
+        <v>0.7870106278249223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7930860624990134</v>
+        <v>0.9669930431598113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9286781885499037</v>
+        <v>0.9964247316740096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9196522268165511</v>
+        <v>0.9904786535795127</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2023085206747055</v>
+        <v>0.1081203743815422</v>
       </c>
       <c r="H6" t="n">
-        <v>1.684708714485168</v>
+        <v>1.424260854721069</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1581830978393555</v>
+        <v>0.09822539985179901</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4545995593070984</v>
+        <v>0.01307990774512291</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3063912987709045</v>
+        <v>0.05565264448523521</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9515822187593183</v>
+        <v>0.9737068852969303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.747486770420885</v>
+        <v>0.7864623007370197</v>
       </c>
       <c r="D7" t="n">
-        <v>0.797647161278952</v>
+        <v>0.965993769511894</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9293339045079934</v>
+        <v>0.996569300942167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9206574300814647</v>
+        <v>0.9902695196135189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2031990885734558</v>
+        <v>0.1103465780615807</v>
       </c>
       <c r="H7" t="n">
-        <v>1.688557147979736</v>
+        <v>1.427927494049072</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1546961963176727</v>
+        <v>0.1011991426348686</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4504200518131256</v>
+        <v>0.01255100965499878</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3025581240653992</v>
+        <v>0.05687503889203072</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9513574386120873</v>
+        <v>0.9731644807238923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7468989063516787</v>
+        <v>0.7859045835819651</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8021439627711342</v>
+        <v>0.9649688367101051</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9299876824026037</v>
+        <v>0.9967128168708468</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9216545779981127</v>
+        <v>0.9900535267051468</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2041424363851547</v>
+        <v>0.112622931599617</v>
       </c>
       <c r="H8" t="n">
-        <v>1.692488193511963</v>
+        <v>1.431657075881958</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1512584388256073</v>
+        <v>0.1042492464184761</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4462529420852661</v>
+        <v>0.01202596444636583</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2987557053565979</v>
+        <v>0.05813752859830856</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9511195674092636</v>
+        <v>0.9726099716011536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.746298180595355</v>
+        <v>0.785337197879727</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8065711278483505</v>
+        <v>0.9639188004450149</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9306388220527787</v>
+        <v>0.9968551429001321</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9226425319922292</v>
+        <v>0.9898307504989493</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2051407247781754</v>
+        <v>0.1149500831961632</v>
       </c>
       <c r="H9" t="n">
-        <v>1.696505308151245</v>
+        <v>1.43545126914978</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1478739380836487</v>
+        <v>0.1073740497231483</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4421026110649109</v>
+        <v>0.01150527317076921</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2949883043766022</v>
+        <v>0.05943966656923294</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9508680279053737</v>
+        <v>0.9720431945528876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7456840460931742</v>
+        <v>0.7847599001429891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.810924700792528</v>
+        <v>0.9628438898387397</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9312865790048527</v>
+        <v>0.9969962044256364</v>
       </c>
       <c r="F10" t="n">
-        <v>0.923620282787912</v>
+        <v>0.9896012518810243</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2061963677406311</v>
+        <v>0.1173287332057953</v>
       </c>
       <c r="H10" t="n">
-        <v>1.70061194896698</v>
+        <v>1.439311504364014</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1445456743240356</v>
+        <v>0.1105728670954704</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4379738867282867</v>
+        <v>0.01098920777440071</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2912598550319672</v>
+        <v>0.0607810914516449</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9506024131922017</v>
+        <v>0.971464015667674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7450559362211132</v>
+        <v>0.7841725169610684</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8152001474522328</v>
+        <v>0.9617448567850213</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9319303136423536</v>
+        <v>0.9971358375850057</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9245868748056918</v>
+        <v>0.9893651818367443</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2073110938072205</v>
+        <v>0.1197594106197357</v>
       </c>
       <c r="H11" t="n">
-        <v>1.704812169075012</v>
+        <v>1.443239450454712</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1412771642208099</v>
+        <v>0.1138434857130051</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4338707625865936</v>
+        <v>0.01047836802899837</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2875739336013794</v>
+        <v>0.06216093152761459</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9503221094678546</v>
+        <v>0.9708722898561735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7444132347518515</v>
+        <v>0.7835747259979071</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8193933957937958</v>
+        <v>0.9606223634377793</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9325693099674252</v>
+        <v>0.9972739276952759</v>
       </c>
       <c r="F12" t="n">
-        <v>0.925541230909014</v>
+        <v>0.9891226373865223</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2084874659776688</v>
+        <v>0.1222427636384964</v>
       </c>
       <c r="H12" t="n">
-        <v>1.709109902381897</v>
+        <v>1.447236776351929</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1380714774131775</v>
+        <v>0.1171839162707329</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4297978281974792</v>
+        <v>0.009973173961043358</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2839346528053284</v>
+        <v>0.06357861310243607</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9500265603582695</v>
+        <v>0.970267930702456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7437553350671402</v>
+        <v>0.7829663181198449</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8234986667748521</v>
+        <v>0.9594772422570861</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9332024938189042</v>
+        <v>0.9974103100349255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9264819058736017</v>
+        <v>0.9888738172516666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2097278237342834</v>
+        <v>0.1247791200876236</v>
       </c>
       <c r="H13" t="n">
-        <v>1.713509321212769</v>
+        <v>1.451305150985718</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1349330544471741</v>
+        <v>0.1205916777253151</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4257619976997375</v>
+        <v>0.009474227204918861</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2803475856781006</v>
+        <v>0.06503297388553619</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9497151839388425</v>
+        <v>0.9696507718694828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7430815120162413</v>
+        <v>0.7823470594287383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.827510945431585</v>
+        <v>0.9583103183876928</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9338291344413642</v>
+        <v>0.9975448567629979</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9274078293955932</v>
+        <v>0.9886188686632057</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2110345959663391</v>
+        <v>0.1273692101240158</v>
       </c>
       <c r="H14" t="n">
-        <v>1.718015074729919</v>
+        <v>1.455446243286133</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1318657100200653</v>
+        <v>0.1240643262863159</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4217678308486938</v>
+        <v>0.008981995284557343</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2768167555332184</v>
+        <v>0.06652316451072693</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.949387264628815</v>
+        <v>0.9690207216238657</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7423910592097323</v>
+        <v>0.7817167322522862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.831425249654356</v>
+        <v>0.9571227376357797</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9344479343010134</v>
+        <v>0.9976774360449977</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9283173615065599</v>
+        <v>0.9883580277912816</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2124108374118805</v>
+        <v>0.1300134062767029</v>
       </c>
       <c r="H15" t="n">
-        <v>1.722632169723511</v>
+        <v>1.459661245346069</v>
       </c>
       <c r="I15" t="n">
-        <v>0.128873273730278</v>
+        <v>0.127598449587822</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4178236424922943</v>
+        <v>0.008496962487697601</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2733484208583832</v>
+        <v>0.06804778426885605</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9490422000179352</v>
+        <v>0.9683776968027478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7416832019542445</v>
+        <v>0.7810750985512174</v>
       </c>
       <c r="D16" t="n">
-        <v>0.835235253319722</v>
+        <v>0.95591559456116</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9350580045464748</v>
+        <v>0.9978078358097225</v>
       </c>
       <c r="F16" t="n">
-        <v>0.929209128356295</v>
+        <v>0.9880915519628098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2138589918613434</v>
+        <v>0.1327120363712311</v>
       </c>
       <c r="H16" t="n">
-        <v>1.727365612983704</v>
+        <v>1.463951826095581</v>
       </c>
       <c r="I16" t="n">
-        <v>0.125960573554039</v>
+        <v>0.1311907917261124</v>
       </c>
       <c r="J16" t="n">
-        <v>0.413935124874115</v>
+        <v>0.008019902743399143</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2699478268623352</v>
+        <v>0.06960534304380417</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9486791438692799</v>
+        <v>0.9677215905848261</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7409571160325437</v>
+        <v>0.7804219338928681</v>
       </c>
       <c r="D17" t="n">
-        <v>0.83893499760101</v>
+        <v>0.9546903026442642</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9356576539017554</v>
+        <v>0.9979358841281892</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9300811375536603</v>
+        <v>0.9878197186257985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2153826504945755</v>
+        <v>0.1354655623435974</v>
       </c>
       <c r="H17" t="n">
-        <v>1.732221007347107</v>
+        <v>1.468319535255432</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1231321692466736</v>
+        <v>0.1348371505737305</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4101130068302155</v>
+        <v>0.007551445625722408</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2666226029396057</v>
+        <v>0.07119422405958176</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9482973443716948</v>
+        <v>0.9670523546700903</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7402119275122354</v>
+        <v>0.7797571373431278</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8425175740601615</v>
+        <v>0.9534483807726499</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9362455749338019</v>
+        <v>0.998061415364022</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9309315957543005</v>
+        <v>0.98754285805546</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2169850021600723</v>
+        <v>0.1382742375135422</v>
       </c>
       <c r="H18" t="n">
-        <v>1.737204074859619</v>
+        <v>1.47276508808136</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1203933358192444</v>
+        <v>0.138532966375351</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4063656330108643</v>
+        <v>0.007092196960002184</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2633795142173767</v>
+        <v>0.07281248271465302</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9478960106306573</v>
+        <v>0.9663698943031178</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7394467491084034</v>
+        <v>0.7790804219499339</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8459763331332932</v>
+        <v>0.9521915929753711</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9368201620262799</v>
+        <v>0.998184247731676</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9317585214200114</v>
+        <v>0.9872613473816172</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2186692953109741</v>
+        <v>0.1411383599042892</v>
       </c>
       <c r="H19" t="n">
-        <v>1.742320775985718</v>
+        <v>1.477290153503418</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1177491545677185</v>
+        <v>0.1422730386257172</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4027032852172852</v>
+        <v>0.006642821710556746</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2602261900901794</v>
+        <v>0.07445792853832245</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9474740736255006</v>
+        <v>0.9656742383956668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7386605863618512</v>
+        <v>0.7783917564694564</v>
       </c>
       <c r="D20" t="n">
-        <v>0.849303359057248</v>
+        <v>0.9509218984479905</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9373792081553398</v>
+        <v>0.9983041542040684</v>
       </c>
       <c r="F20" t="n">
-        <v>0.932559235707745</v>
+        <v>0.9869756486026806</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2204400897026062</v>
+        <v>0.1440578699111938</v>
       </c>
       <c r="H20" t="n">
-        <v>1.747577905654907</v>
+        <v>1.481895327568054</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1152056828141212</v>
+        <v>0.1460515260696411</v>
       </c>
       <c r="J20" t="n">
-        <v>0.399139940738678</v>
+        <v>0.006204151548445225</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2571728229522705</v>
+        <v>0.07612784206867218</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9470306189958057</v>
+        <v>0.9649653342563622</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7378524911633295</v>
+        <v>0.7776910243411044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8524907884528191</v>
+        <v>0.9496415718641837</v>
       </c>
       <c r="E21" t="n">
-        <v>0.937920642329784</v>
+        <v>0.9984209040946983</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9333312378633207</v>
+        <v>0.9866862577053257</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2223011404275894</v>
+        <v>0.1470329910516739</v>
       </c>
       <c r="H21" t="n">
-        <v>1.752981662750244</v>
+        <v>1.486581087112427</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1127689331769943</v>
+        <v>0.1498616486787796</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3956888914108276</v>
+        <v>0.005777028854936361</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2542289197444916</v>
+        <v>0.0778193473815918</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.946564509255663</v>
+        <v>0.9642432032125317</v>
       </c>
       <c r="C22" t="n">
-        <v>0.737021416728189</v>
+        <v>0.7769782068687088</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8555305752060884</v>
+        <v>0.9483530281209882</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9384421554647451</v>
+        <v>0.9985343133348629</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9340718124856349</v>
+        <v>0.9863937393025478</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2242573201656342</v>
+        <v>0.150063619017601</v>
       </c>
       <c r="H22" t="n">
-        <v>1.758538961410522</v>
+        <v>1.491347789764404</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1104450523853302</v>
+        <v>0.1536962389945984</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3923648297786713</v>
+        <v>0.005362127907574177</v>
       </c>
       <c r="K22" t="n">
-        <v>0.251404881477356</v>
+        <v>0.07952912896871567</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9460745381654337</v>
+        <v>0.9635079590436106</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7361662862126515</v>
+        <v>0.7762533001489365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8584136148645984</v>
+        <v>0.9470595523061403</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9389406564154552</v>
+        <v>0.9986441262108274</v>
       </c>
       <c r="F23" t="n">
-        <v>0.934777406482754</v>
+        <v>0.9860988197005618</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2263136357069016</v>
+        <v>0.153149276971817</v>
       </c>
       <c r="H23" t="n">
-        <v>1.764257192611694</v>
+        <v>1.496195316314697</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1082410141825676</v>
+        <v>0.1575454920530319</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3891873955726624</v>
+        <v>0.004960383754223585</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2487142384052277</v>
+        <v>0.08125294744968414</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9455594258269102</v>
+        <v>0.9627596421250926</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7352860719424119</v>
+        <v>0.7755164130047432</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8611303330431246</v>
+        <v>0.9457639692093762</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9394131312130292</v>
+        <v>0.9987500884010272</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9354446039203269</v>
+        <v>0.9858021695974754</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2284754365682602</v>
+        <v>0.1562898010015488</v>
       </c>
       <c r="H24" t="n">
-        <v>1.770143270492554</v>
+        <v>1.501122951507568</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1061641126871109</v>
+        <v>0.1614010334014893</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3861758708953857</v>
+        <v>0.004572727251797915</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2461699992418289</v>
+        <v>0.08298687636852264</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9450177862035328</v>
+        <v>0.961998374874962</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7343797411006543</v>
+        <v>0.774767761557323</v>
       </c>
       <c r="D25" t="n">
-        <v>0.863671176370934</v>
+        <v>0.9444701291150078</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9398561027008707</v>
+        <v>0.9988519627513388</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9360694953645952</v>
+        <v>0.9855046857387511</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2307485789060593</v>
+        <v>0.1594846844673157</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776203870773315</v>
+        <v>1.506129026412964</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1042216643691063</v>
+        <v>0.1652513593435287</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3833523988723755</v>
+        <v>0.004200025927275419</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2437870800495148</v>
+        <v>0.08472568541765213</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9444481182111261</v>
+        <v>0.9612243603322752</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7334463119035113</v>
+        <v>0.7740076320694003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8660252520318565</v>
+        <v>0.9431820273619499</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9402655947799847</v>
+        <v>0.9989494818180034</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9366477174532448</v>
+        <v>0.9852072951274238</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2331393361091614</v>
+        <v>0.1627330631017685</v>
       </c>
       <c r="H26" t="n">
-        <v>1.782445669174194</v>
+        <v>1.511212110519409</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1024220064282417</v>
+        <v>0.1690846085548401</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3807423710823059</v>
+        <v>0.00384325860068202</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2415821403264999</v>
+        <v>0.08646394312381744</v>
       </c>
     </row>
   </sheetData>
